--- a/englishhao/稻壳/课程表/【横版】课程表(作息时间、晨读、晚自习、任课教师、下拉列表选择课程).xlsx
+++ b/englishhao/稻壳/课程表/【横版】课程表(作息时间、晨读、晚自习、任课教师、下拉列表选择课程).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="24180" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="横版（初、高中）" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+  <si>
+    <t>更多教学及学习工具，请到WPS稻壳搜索“八不戒”下载。</t>
+  </si>
   <si>
     <t>星期
 节次</t>
@@ -219,7 +222,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,9 +237,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="47"/>
+      <sz val="6"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="庞门正道标题体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -252,6 +255,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -260,7 +269,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,35 +329,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,31 +366,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,10 +383,24 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,14 +410,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -417,7 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +438,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,7 +504,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,145 +600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,6 +811,15 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,30 +835,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,17 +857,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,11 +891,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,10 +920,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,283 +932,336 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1366,18 +1428,18 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161290</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
@@ -1396,7 +1458,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="41275"/>
+          <a:off x="352425" y="41275"/>
           <a:ext cx="1857375" cy="727710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1404,7 +1466,7 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1416,13 +1478,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>153670</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>400050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>744855</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>619125</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1431,7 +1493,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5455285" y="285750"/>
+          <a:off x="5455285" y="400050"/>
           <a:ext cx="4248785" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1612,18 +1674,18 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
+    <xdr:clientData fLocksWithSheet="0"/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
@@ -1642,7 +1704,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="41275"/>
+          <a:off x="352425" y="41275"/>
           <a:ext cx="1872615" cy="727710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1916,149 +1978,152 @@
   <dimension ref="B1:P18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-    <col min="4" max="4" width="11.7583333333333" style="1" customWidth="1"/>
-    <col min="5" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" customWidth="1"/>
-    <col min="14" max="14" width="8.375" customWidth="1"/>
-    <col min="15" max="15" width="9" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="36" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7583333333333" style="2" customWidth="1"/>
+    <col min="5" max="11" width="10.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="1" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="37" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="2:12">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+      <c r="E1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" ht="8" customHeight="1"/>
     <row r="3" ht="22" customHeight="1" spans="2:16">
       <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="E3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="38" t="s">
+      <c r="H3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="38" t="s">
+      <c r="I3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="38" t="s">
+      <c r="J3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="20"/>
+      <c r="K3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="21"/>
       <c r="M3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
-      <c r="P3" s="45"/>
+      <c r="P3" s="47"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="2:16">
       <c r="B4" s="6"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="41" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="G4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="H4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="I4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="J4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="K4" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="22"/>
       <c r="M4" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="45" t="s">
         <v>21</v>
+      </c>
+      <c r="P4" s="47" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="2:16">
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="21"/>
+      <c r="D5" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="22"/>
       <c r="M5" s="8">
         <v>1</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="P5" s="46"/>
+        <v>26</v>
+      </c>
+      <c r="P5" s="48"/>
     </row>
     <row r="6" ht="27" customHeight="1" spans="2:16">
       <c r="B6" s="9"/>
       <c r="C6" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -2067,23 +2132,23 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-      <c r="L6" s="21"/>
+      <c r="L6" s="22"/>
       <c r="M6" s="8">
         <v>2</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="46"/>
+        <v>28</v>
+      </c>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:16">
       <c r="B7" s="9"/>
       <c r="C7" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -2092,23 +2157,23 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="L7" s="21"/>
+      <c r="L7" s="22"/>
       <c r="M7" s="8">
         <v>3</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="46"/>
+        <v>30</v>
+      </c>
+      <c r="P7" s="48"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:16">
       <c r="B8" s="9"/>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -2116,24 +2181,24 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="21"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="22"/>
       <c r="M8" s="8">
         <v>4</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="46"/>
+        <v>32</v>
+      </c>
+      <c r="P8" s="48"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:16">
       <c r="B9" s="9"/>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -2142,23 +2207,23 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="22"/>
       <c r="M9" s="8">
         <v>5</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="46"/>
+        <v>34</v>
+      </c>
+      <c r="P9" s="48"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:16">
       <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2167,23 +2232,23 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="22"/>
       <c r="M10" s="8">
         <v>6</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="46"/>
+        <v>36</v>
+      </c>
+      <c r="P10" s="48"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:16">
       <c r="B11" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -2191,26 +2256,26 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="21"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="22"/>
       <c r="M11" s="8">
         <v>7</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="46"/>
+        <v>38</v>
+      </c>
+      <c r="P11" s="48"/>
     </row>
     <row r="12" ht="27" customHeight="1" spans="2:16">
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -2219,23 +2284,23 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="22"/>
       <c r="M12" s="8">
         <v>8</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="46"/>
+        <v>40</v>
+      </c>
+      <c r="P12" s="48"/>
     </row>
     <row r="13" ht="27" customHeight="1" spans="2:16">
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -2244,23 +2309,23 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="21"/>
+      <c r="L13" s="22"/>
       <c r="M13" s="8">
         <v>9</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" s="46"/>
+        <v>41</v>
+      </c>
+      <c r="P13" s="48"/>
     </row>
     <row r="14" ht="27" customHeight="1" spans="2:16">
       <c r="B14" s="9"/>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -2269,23 +2334,23 @@
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="21"/>
+      <c r="L14" s="22"/>
       <c r="M14" s="8">
         <v>10</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="46"/>
+        <v>42</v>
+      </c>
+      <c r="P14" s="48"/>
     </row>
     <row r="15" ht="27" customHeight="1" spans="2:16">
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -2294,50 +2359,50 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="21"/>
+      <c r="L15" s="22"/>
       <c r="M15" s="8">
         <v>11</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" s="46"/>
+        <v>43</v>
+      </c>
+      <c r="P15" s="48"/>
     </row>
     <row r="16" ht="27" customHeight="1" spans="2:16">
       <c r="B16" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="48"/>
+        <v>25</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="50"/>
       <c r="M16" s="8">
         <v>12</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="46"/>
+        <v>45</v>
+      </c>
+      <c r="P16" s="48"/>
     </row>
     <row r="17" ht="27" customHeight="1" spans="2:16">
       <c r="B17" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -2346,23 +2411,23 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="21"/>
+      <c r="L17" s="22"/>
       <c r="M17" s="8">
         <v>13</v>
       </c>
       <c r="N17" s="8"/>
       <c r="O17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" s="46"/>
+        <v>47</v>
+      </c>
+      <c r="P17" s="48"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="2:16">
       <c r="B18" s="9"/>
       <c r="C18" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -2371,20 +2436,20 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="21"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="8">
         <v>14</v>
       </c>
       <c r="N18" s="8"/>
       <c r="O18" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P18" s="46"/>
+        <v>48</v>
+      </c>
+      <c r="P18" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:K1"/>
+  <sheetProtection password="FA3F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" objects="1"/>
+  <mergeCells count="10">
+    <mergeCell ref="E1:K1"/>
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:K11"/>
@@ -2395,11 +2460,14 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B3:C4"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8 L5:L7 L9:L10 E5:K7 E9:K10">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8 L5:L7 L9:L10">
       <formula1>学科!$A$1:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8 L12:L15 L17:L18 O5:O7 O9:O18 E12:K15 E17:K18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L12:L15 L17:L18">
+      <formula1>学科!$A$1:$A$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="O5:O18 E5:K7 E9:K10 E12:K15 E17:K18">
       <formula1>学科!$A$1:$A$25</formula1>
     </dataValidation>
   </dataValidations>
@@ -2417,60 +2485,63 @@
   <dimension ref="B1:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
-    <col min="3" max="3" width="11.075" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="1" customWidth="1"/>
-    <col min="11" max="11" width="4.5" customWidth="1"/>
-    <col min="12" max="13" width="8.625" customWidth="1"/>
-    <col min="14" max="14" width="15.425" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.075" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.425" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="2:10">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" ht="8" customHeight="1"/>
     <row r="3" ht="22" customHeight="1" spans="2:14">
       <c r="B3" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="J3" s="21"/>
       <c r="K3" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -2485,315 +2556,315 @@
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="21"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="2:14">
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="21"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="22"/>
+      <c r="L5" s="23"/>
       <c r="M5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="22"/>
+        <v>26</v>
+      </c>
+      <c r="N5" s="23"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="2:14">
       <c r="B6" s="9"/>
       <c r="C6" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="21"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="8">
         <v>2</v>
       </c>
-      <c r="L6" s="22"/>
+      <c r="L6" s="23"/>
       <c r="M6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="2:14">
       <c r="B7" s="9"/>
       <c r="C7" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="21"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="8">
         <v>3</v>
       </c>
-      <c r="L7" s="22"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="22"/>
+        <v>30</v>
+      </c>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="2:14">
       <c r="B8" s="9"/>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="21"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="8">
         <v>4</v>
       </c>
-      <c r="L8" s="22"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="22"/>
+        <v>32</v>
+      </c>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="2:14">
       <c r="B9" s="9"/>
       <c r="C9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="21"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="8">
         <v>5</v>
       </c>
-      <c r="L9" s="22"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:14">
       <c r="B10" s="9"/>
       <c r="C10" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="21"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="8">
         <v>6</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N10" s="22"/>
+        <v>38</v>
+      </c>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="2:14">
       <c r="B11" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="21"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="8">
         <v>7</v>
       </c>
-      <c r="L11" s="22"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="22"/>
+        <v>36</v>
+      </c>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="2:14">
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="21"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="8">
         <v>8</v>
       </c>
-      <c r="L12" s="22"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="22"/>
+        <v>40</v>
+      </c>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="2:14">
       <c r="B13" s="9"/>
       <c r="C13" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="21"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="8">
         <v>9</v>
       </c>
-      <c r="L13" s="22"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="22"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:14">
       <c r="B14" s="15"/>
       <c r="C14" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="21"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="8">
         <v>10</v>
       </c>
-      <c r="L14" s="24"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="24"/>
+      <c r="N14" s="25"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="2:14">
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="2:14">
       <c r="B16" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="33"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:14">
       <c r="B17" s="9"/>
       <c r="C17" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:I1"/>
+  <sheetProtection password="FA3F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" objects="1"/>
+  <mergeCells count="18">
+    <mergeCell ref="E1:I1"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="B11:C11"/>
@@ -2812,11 +2883,14 @@
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="K15:N17"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8 J5:J7 J9:J10 E5:I7 E9:I10">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J8 J5:J7 J9:J10">
       <formula1>学科!$A$1:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M8 M15 J12:J14 M5:M7 M9:M14 M16:M17 E12:I14 E16:I17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M15 J12:J14 M16:M17">
+      <formula1>学科!$A$1:$A$25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="M5:M14 E5:I7 E9:I10 E12:I14 E16:I17">
       <formula1>学科!$A$1:$A$25</formula1>
     </dataValidation>
   </dataValidations>
@@ -2841,97 +2915,97 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/englishhao/稻壳/课程表/【横版】课程表(作息时间、晨读、晚自习、任课教师、下拉列表选择课程).xlsx
+++ b/englishhao/稻壳/课程表/【横版】课程表(作息时间、晨读、晚自习、任课教师、下拉列表选择课程).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12630"/>
+    <workbookView windowWidth="19335" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="横版（初、高中）" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
-  <si>
-    <t>更多教学及学习工具，请到WPS稻壳搜索“八不戒”下载。</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>星期
 节次</t>
@@ -98,73 +95,112 @@
     <t>晨读</t>
   </si>
   <si>
+    <t>07:50-08:10</t>
+  </si>
+  <si>
+    <t>语文</t>
+  </si>
+  <si>
+    <t>第一节</t>
+  </si>
+  <si>
+    <t>08:20-09:05</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>第二节</t>
+  </si>
+  <si>
+    <t>09:15-10:00</t>
+  </si>
+  <si>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>课间操</t>
+  </si>
+  <si>
+    <t>10:00-10:20</t>
+  </si>
+  <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>第三节</t>
+  </si>
+  <si>
+    <t>10:20-11:05</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>第四节</t>
+  </si>
+  <si>
+    <t>11:15-12:00</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>中午</t>
+  </si>
+  <si>
     <t>12:00-14:00</t>
   </si>
   <si>
-    <t>语文</t>
-  </si>
-  <si>
-    <t>第一节</t>
-  </si>
-  <si>
-    <t>数学</t>
-  </si>
-  <si>
-    <t>第二节</t>
-  </si>
-  <si>
-    <t>英语</t>
-  </si>
-  <si>
-    <t>课间操</t>
-  </si>
-  <si>
-    <t>科学</t>
-  </si>
-  <si>
-    <t>第三节</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>第四节</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>中午</t>
-  </si>
-  <si>
     <t>美术</t>
   </si>
   <si>
     <t>下午</t>
   </si>
   <si>
+    <t>14:00-14:45</t>
+  </si>
+  <si>
     <t>信息技术</t>
   </si>
   <si>
+    <t>14:55-15:40</t>
+  </si>
+  <si>
     <t>政治</t>
   </si>
   <si>
+    <t>15:50-16:35</t>
+  </si>
+  <si>
     <t>地理</t>
   </si>
   <si>
+    <t>16:45-17:30</t>
+  </si>
+  <si>
     <t>历史</t>
   </si>
   <si>
     <t>放学</t>
   </si>
   <si>
+    <t>17:45</t>
+  </si>
+  <si>
     <t>生物</t>
   </si>
   <si>
     <t>晚自习</t>
   </si>
   <si>
+    <t>19:00-19:50</t>
+  </si>
+  <si>
     <t>物理</t>
+  </si>
+  <si>
+    <t>20:00-20:50</t>
   </si>
   <si>
     <t>化学</t>
@@ -218,8 +254,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -267,23 +303,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -299,16 +355,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,78 +386,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -410,6 +406,46 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -420,37 +456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +486,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +540,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,25 +558,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,43 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,13 +624,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -811,15 +847,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,6 +866,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -854,11 +899,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,30 +948,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -920,10 +956,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -932,133 +968,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,10 +1115,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1132,6 +1165,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
       <protection locked="0"/>
@@ -1213,7 +1250,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1466,7 +1503,68 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>892175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>501650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2235200" y="501650"/>
+          <a:ext cx="3572510" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600"/>
+            <a:t>更多教学及学习工具，请到WPS稻壳搜索“八不戒”下载。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
@@ -1712,6 +1810,166 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495935</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2225040" y="482600"/>
+          <a:ext cx="3572510" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="600"/>
+            <a:t>更多教学及学习工具，请到WPS稻壳搜索“八不戒”下载。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2000,9 +2258,7 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="38" t="s">
-        <v>0</v>
-      </c>
+      <c r="E1" s="38"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
@@ -2013,92 +2269,92 @@
     </row>
     <row r="2" ht="8" customHeight="1"/>
     <row r="3" ht="22" customHeight="1" spans="2:16">
-      <c r="B3" s="6" t="s">
-        <v>1</v>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="G3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="H3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="I3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="J3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="K3" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="40" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="47"/>
     </row>
     <row r="4" ht="22" customHeight="1" spans="2:16">
-      <c r="B4" s="6"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="39"/>
       <c r="D4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="F4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="G4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="H4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="I4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="J4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="K4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="L4" s="22"/>
+      <c r="M4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P4" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="47" t="s">
+    </row>
+    <row r="5" ht="27" customHeight="1" spans="2:16">
+      <c r="B5" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" ht="27" customHeight="1" spans="2:16">
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="45" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>25</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
@@ -2108,274 +2364,274 @@
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>1</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="10" t="s">
+      <c r="N5" s="7"/>
+      <c r="O5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="48"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="2:16">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="48"/>
-    </row>
-    <row r="6" ht="27" customHeight="1" spans="2:16">
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="8">
+      <c r="M6" s="7">
         <v>2</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="10" t="s">
+      <c r="N6" s="7"/>
+      <c r="O6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="P6" s="48"/>
     </row>
     <row r="7" ht="27" customHeight="1" spans="2:16">
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="8">
+      <c r="M7" s="7">
         <v>3</v>
       </c>
-      <c r="N7" s="8"/>
-      <c r="O7" s="10" t="s">
-        <v>30</v>
+      <c r="N7" s="7"/>
+      <c r="O7" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="P7" s="48"/>
     </row>
     <row r="8" ht="27" customHeight="1" spans="2:16">
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="24"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>4</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="10" t="s">
-        <v>32</v>
+      <c r="N8" s="7"/>
+      <c r="O8" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="P8" s="48"/>
     </row>
     <row r="9" ht="27" customHeight="1" spans="2:16">
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>5</v>
       </c>
-      <c r="N9" s="8"/>
-      <c r="O9" s="10" t="s">
-        <v>34</v>
+      <c r="N9" s="7"/>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="P9" s="48"/>
     </row>
     <row r="10" ht="27" customHeight="1" spans="2:16">
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="22"/>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>6</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="10" t="s">
-        <v>36</v>
+      <c r="N10" s="7"/>
+      <c r="O10" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="P10" s="48"/>
     </row>
     <row r="11" ht="27" customHeight="1" spans="2:16">
-      <c r="B11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="24"/>
       <c r="L11" s="22"/>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>7</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="10" t="s">
+      <c r="N11" s="7"/>
+      <c r="O11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="48"/>
+    </row>
+    <row r="12" ht="27" customHeight="1" spans="2:16">
+      <c r="B12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="7">
+        <v>8</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="48"/>
+    </row>
+    <row r="13" ht="27" customHeight="1" spans="2:16">
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="7">
+        <v>9</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" ht="27" customHeight="1" spans="2:16">
+      <c r="B14" s="8"/>
+      <c r="C14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="48"/>
+    </row>
+    <row r="15" ht="27" customHeight="1" spans="2:16">
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P11" s="48"/>
-    </row>
-    <row r="12" ht="27" customHeight="1" spans="2:16">
-      <c r="B12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="8">
-        <v>8</v>
-      </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="48"/>
-    </row>
-    <row r="13" ht="27" customHeight="1" spans="2:16">
-      <c r="B13" s="9"/>
-      <c r="C13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="8">
-        <v>9</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="48"/>
-    </row>
-    <row r="14" ht="27" customHeight="1" spans="2:16">
-      <c r="B14" s="9"/>
-      <c r="C14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="8">
-        <v>10</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="48"/>
-    </row>
-    <row r="15" ht="27" customHeight="1" spans="2:16">
-      <c r="B15" s="9"/>
-      <c r="C15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="22"/>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <v>11</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="10" t="s">
-        <v>43</v>
+      <c r="N15" s="7"/>
+      <c r="O15" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="P15" s="48"/>
     </row>
     <row r="16" ht="27" customHeight="1" spans="2:16">
-      <c r="B16" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="10" t="s">
-        <v>25</v>
+      <c r="B16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
@@ -2385,71 +2641,70 @@
       <c r="J16" s="46"/>
       <c r="K16" s="49"/>
       <c r="L16" s="50"/>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <v>12</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="10" t="s">
-        <v>45</v>
+      <c r="N16" s="7"/>
+      <c r="O16" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="P16" s="48"/>
     </row>
     <row r="17" ht="27" customHeight="1" spans="2:16">
-      <c r="B17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="B17" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="22"/>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <v>13</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="10" t="s">
-        <v>47</v>
+      <c r="N17" s="7"/>
+      <c r="O17" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="P17" s="48"/>
     </row>
     <row r="18" ht="27" customHeight="1" spans="2:16">
-      <c r="B18" s="9"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="22"/>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <v>14</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="10" t="s">
-        <v>48</v>
+      <c r="N18" s="7"/>
+      <c r="O18" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="P18" s="48"/>
     </row>
   </sheetData>
   <sheetProtection password="FA3F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" objects="1"/>
-  <mergeCells count="10">
-    <mergeCell ref="E1:K1"/>
+  <mergeCells count="9">
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:K11"/>
@@ -2506,307 +2761,305 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="20"/>
     </row>
     <row r="2" ht="8" customHeight="1"/>
     <row r="3" ht="22" customHeight="1" spans="2:14">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" ht="22" customHeight="1" spans="2:14">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="2:14">
+      <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-    </row>
-    <row r="4" ht="22" customHeight="1" spans="2:14">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" ht="30" customHeight="1" spans="2:14">
-      <c r="B5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="L5" s="23"/>
+      <c r="M5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="8">
-        <v>1</v>
-      </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="10" t="s">
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="2:14">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="23"/>
-    </row>
-    <row r="6" ht="30" customHeight="1" spans="2:14">
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>2</v>
       </c>
       <c r="L6" s="23"/>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>28</v>
       </c>
       <c r="N6" s="23"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="2:14">
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="22"/>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>3</v>
       </c>
       <c r="L7" s="23"/>
-      <c r="M7" s="10" t="s">
-        <v>30</v>
+      <c r="M7" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="N7" s="23"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="2:14">
-      <c r="B8" s="9"/>
-      <c r="C8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="24"/>
       <c r="J8" s="22"/>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>4</v>
       </c>
       <c r="L8" s="23"/>
-      <c r="M8" s="10" t="s">
-        <v>32</v>
+      <c r="M8" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="N8" s="23"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="2:14">
-      <c r="B9" s="9"/>
-      <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="22"/>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>5</v>
       </c>
       <c r="L9" s="23"/>
-      <c r="M9" s="10" t="s">
-        <v>34</v>
+      <c r="M9" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="N9" s="23"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="2:14">
-      <c r="B10" s="9"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="7">
+        <v>6</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="2:14">
+      <c r="B11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="7">
+        <v>7</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:14">
+      <c r="B12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="7">
+        <v>8</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N12" s="23"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="2:14">
+      <c r="B13" s="8"/>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="7">
+        <v>9</v>
+      </c>
+      <c r="L13" s="23"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="23"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="2:14">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="8">
-        <v>6</v>
-      </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="23"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="2:14">
-      <c r="B11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="8">
-        <v>7</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="2:14">
-      <c r="B12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="8">
-        <v>8</v>
-      </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="2:14">
-      <c r="B13" s="9"/>
-      <c r="C13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="8">
-        <v>9</v>
-      </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="2:14">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="D14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>10</v>
       </c>
       <c r="L14" s="25"/>
-      <c r="M14" s="17"/>
+      <c r="M14" s="16"/>
       <c r="N14" s="25"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="2:14">
-      <c r="B15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10" t="s">
-        <v>25</v>
+      <c r="B15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
@@ -2815,21 +3068,21 @@
       <c r="I15" s="18"/>
       <c r="J15" s="26"/>
       <c r="K15" s="27" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
       <c r="N15" s="29"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="2:14">
-      <c r="B16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>25</v>
+      <c r="B16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
@@ -2843,12 +3096,12 @@
       <c r="N16" s="33"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="2:14">
-      <c r="B17" s="9"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>25</v>
+      <c r="D17" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
@@ -2863,8 +3116,7 @@
     </row>
   </sheetData>
   <sheetProtection password="FA3F" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertRows="0" insertColumns="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" objects="1"/>
-  <mergeCells count="18">
-    <mergeCell ref="E1:I1"/>
+  <mergeCells count="17">
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="B11:C11"/>
@@ -2915,7 +3167,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2925,87 +3177,87 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
